--- a/Penman_irrigation_summary.xlsx
+++ b/Penman_irrigation_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
         <v>45423</v>
       </c>
       <c r="B2" t="n">
-        <v>1.016</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3054,55 +3054,111 @@
         <v>45468</v>
       </c>
       <c r="B47" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.7196</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.2857</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.9626</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.6107</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.6386</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.2287</v>
+      </c>
+      <c r="M47" t="n">
+        <v>71.2561</v>
+      </c>
+      <c r="N47" t="n">
+        <v>43.7867</v>
+      </c>
+      <c r="O47" t="n">
+        <v>75.9113</v>
+      </c>
+      <c r="P47" t="n">
+        <v>30.8557</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>69.70440000000001</v>
+      </c>
+      <c r="R47" t="n">
+        <v>42.6948</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B48" t="n">
         <v>1.524</v>
       </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>3.7225</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2.2926</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.9655</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.6176</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.6415</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.2356</v>
-      </c>
-      <c r="M47" t="n">
-        <v>71.3121</v>
-      </c>
-      <c r="N47" t="n">
-        <v>43.9196</v>
-      </c>
-      <c r="O47" t="n">
-        <v>75.96729999999999</v>
-      </c>
-      <c r="P47" t="n">
-        <v>30.9886</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>69.7604</v>
-      </c>
-      <c r="R47" t="n">
-        <v>42.8277</v>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.7076</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.2947</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.9566</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.6227</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.6326</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.2347</v>
+      </c>
+      <c r="M48" t="n">
+        <v>71.0262</v>
+      </c>
+      <c r="N48" t="n">
+        <v>43.9591</v>
+      </c>
+      <c r="O48" t="n">
+        <v>75.7963</v>
+      </c>
+      <c r="P48" t="n">
+        <v>31.0856</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>69.5894</v>
+      </c>
+      <c r="R48" t="n">
+        <v>42.8097</v>
       </c>
     </row>
   </sheetData>

--- a/Penman_irrigation_summary.xlsx
+++ b/Penman_irrigation_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
         <v>45423</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.016</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3125,40 +3125,96 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>3.7076</v>
+        <v>3.7451</v>
       </c>
       <c r="H48" t="n">
-        <v>2.2947</v>
+        <v>2.3093</v>
       </c>
       <c r="I48" t="n">
-        <v>3.9566</v>
+        <v>3.9941</v>
       </c>
       <c r="J48" t="n">
-        <v>1.6227</v>
+        <v>1.6373</v>
       </c>
       <c r="K48" t="n">
-        <v>3.6326</v>
+        <v>3.6701</v>
       </c>
       <c r="L48" t="n">
-        <v>2.2347</v>
+        <v>2.2493</v>
       </c>
       <c r="M48" t="n">
-        <v>71.0262</v>
+        <v>71.7444</v>
       </c>
       <c r="N48" t="n">
-        <v>43.9591</v>
+        <v>44.2386</v>
       </c>
       <c r="O48" t="n">
-        <v>75.7963</v>
+        <v>76.5145</v>
       </c>
       <c r="P48" t="n">
-        <v>31.0856</v>
+        <v>31.365</v>
       </c>
       <c r="Q48" t="n">
-        <v>69.5894</v>
+        <v>70.30759999999999</v>
       </c>
       <c r="R48" t="n">
-        <v>42.8097</v>
+        <v>43.0891</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.8043</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.3762</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.0563</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.7192</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.7503</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2.3132</v>
+      </c>
+      <c r="M49" t="n">
+        <v>72.8785</v>
+      </c>
+      <c r="N49" t="n">
+        <v>45.522</v>
+      </c>
+      <c r="O49" t="n">
+        <v>77.70610000000001</v>
+      </c>
+      <c r="P49" t="n">
+        <v>32.9358</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>71.84399999999999</v>
+      </c>
+      <c r="R49" t="n">
+        <v>44.3151</v>
       </c>
     </row>
   </sheetData>

--- a/Penman_irrigation_summary.xlsx
+++ b/Penman_irrigation_summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Penman_irrigation_summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Penman_irrigation_summary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Penman_irrigation_summary.xlsx
+++ b/Penman_irrigation_summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Penman_irrigation_summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Penman_irrigation_summary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -608,7 +608,7 @@
         <v>0.0387</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0327</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>0.0387</v>
@@ -626,7 +626,7 @@
         <v>3.7578</v>
       </c>
       <c r="N3" t="n">
-        <v>3.175</v>
+        <v>0.9604</v>
       </c>
       <c r="O3" t="n">
         <v>3.7578</v>
@@ -664,7 +664,7 @@
         <v>0.0747</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0567</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0747</v>
@@ -682,7 +682,7 @@
         <v>6.562</v>
       </c>
       <c r="N4" t="n">
-        <v>4.9817</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>6.562</v>
@@ -720,7 +720,7 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0502</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.08019999999999999</v>
@@ -738,7 +738,7 @@
         <v>6.4219</v>
       </c>
       <c r="N5" t="n">
-        <v>4.0191</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>6.4219</v>
@@ -776,7 +776,7 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0.08019999999999999</v>
@@ -794,7 +794,7 @@
         <v>5.904</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2532</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>5.904</v>
@@ -832,7 +832,7 @@
         <v>0.1006</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0286</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0.1006</v>
@@ -850,7 +850,7 @@
         <v>6.8524</v>
       </c>
       <c r="N7" t="n">
-        <v>1.9465</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>6.8524</v>
@@ -888,7 +888,7 @@
         <v>0.1308</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1008</v>
+        <v>0.0302</v>
       </c>
       <c r="I8" t="n">
         <v>0.1308</v>
@@ -906,7 +906,7 @@
         <v>8.292999999999999</v>
       </c>
       <c r="N8" t="n">
-        <v>6.3908</v>
+        <v>1.9164</v>
       </c>
       <c r="O8" t="n">
         <v>8.292999999999999</v>
@@ -944,7 +944,7 @@
         <v>0.1648</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1228</v>
+        <v>0.0066</v>
       </c>
       <c r="I9" t="n">
         <v>0.1648</v>
@@ -962,7 +962,7 @@
         <v>9.769399999999999</v>
       </c>
       <c r="N9" t="n">
-        <v>7.2793</v>
+        <v>0.3918</v>
       </c>
       <c r="O9" t="n">
         <v>9.769399999999999</v>
@@ -1000,7 +1000,7 @@
         <v>0.1704</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1044</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0.1704</v>
@@ -1018,7 +1018,7 @@
         <v>9.488300000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>5.8139</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>9.488300000000001</v>
@@ -1056,7 +1056,7 @@
         <v>0.2269</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1246</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.2269</v>
@@ -1074,7 +1074,7 @@
         <v>11.9083</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5396</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>11.9083</v>
@@ -1109,40 +1109,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2375</v>
+        <v>0.0323</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1511</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0.2915</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2111</v>
+        <v>0.0059</v>
       </c>
       <c r="K12" t="n">
         <v>0.2915</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2051</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>11.7869</v>
+        <v>1.6045</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5002</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>14.4665</v>
       </c>
       <c r="P12" t="n">
-        <v>10.4776</v>
+        <v>0.2951</v>
       </c>
       <c r="Q12" t="n">
         <v>14.4665</v>
       </c>
       <c r="R12" t="n">
-        <v>10.1798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1165,40 +1165,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.3032</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9089</v>
+        <v>0.0498</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2982</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1829</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2982</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4229</v>
+        <v>0.0498</v>
       </c>
       <c r="M13" t="n">
-        <v>61.333</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>42.7778</v>
+        <v>2.3428</v>
       </c>
       <c r="O13" t="n">
-        <v>14.0336</v>
+        <v>3.8395</v>
       </c>
       <c r="P13" t="n">
-        <v>8.609299999999999</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.0336</v>
+        <v>3.8395</v>
       </c>
       <c r="R13" t="n">
-        <v>19.9046</v>
+        <v>2.3428</v>
       </c>
     </row>
     <row r="14">
@@ -1221,40 +1221,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.2762</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8739</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2082</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1659</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2232</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3849</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>57.1211</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>39.1118</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.320600000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>7.4238</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.991899999999999</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>17.2256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1277,40 +1277,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.2552</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8289</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1512</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1329</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1692</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3489</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>53.5559</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>35.3642</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>6.4531</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>5.6689</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.2211</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.8847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1333,40 +1333,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1038</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3287</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2988</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0227</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.5628</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0163</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-4.2306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>13.3992</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-12.179</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9263</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-22.9398</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.6633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1389,40 +1389,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1068</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4097</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2958</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0433</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2687</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-4.1669</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>15.9871</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>-11.5414</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.6885</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1642</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>10.4854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1445,40 +1445,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2328</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3107</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3498</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1963</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0138</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1247</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-8.711</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>11.6273</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>-13.0891</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-7.3445</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.516</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.6672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1501,40 +1501,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2021</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3126</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3131</v>
+        <v>0.0139</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.2754</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0289</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2466</v>
+        <v>0.0168</v>
       </c>
       <c r="M19" t="n">
-        <v>-7.2695</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>11.2434</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-11.2623</v>
+        <v>0.5</v>
       </c>
       <c r="P19" t="n">
-        <v>-9.9076</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.0399</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>8.869300000000001</v>
+        <v>0.6058</v>
       </c>
     </row>
     <row r="20">
@@ -1557,40 +1557,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1117</v>
+        <v>0.0663</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4056</v>
+        <v>0.039</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2137</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1794</v>
+        <v>0.039</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0953</v>
+        <v>0.0663</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3036</v>
+        <v>0.0558</v>
       </c>
       <c r="M20" t="n">
-        <v>-3.8801</v>
+        <v>2.3036</v>
       </c>
       <c r="N20" t="n">
-        <v>14.0816</v>
+        <v>1.3536</v>
       </c>
       <c r="O20" t="n">
-        <v>-7.4218</v>
+        <v>2.7863</v>
       </c>
       <c r="P20" t="n">
-        <v>-6.2309</v>
+        <v>1.3536</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.3074</v>
+        <v>2.3036</v>
       </c>
       <c r="R20" t="n">
-        <v>10.54</v>
+        <v>1.9384</v>
       </c>
     </row>
     <row r="21">
@@ -1613,40 +1613,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0279</v>
+        <v>0.1382</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5168</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0801</v>
+        <v>0.1521</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0352</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2151</v>
+        <v>0.1382</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3488</v>
+        <v>0.098</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.9364</v>
+        <v>4.6372</v>
       </c>
       <c r="N21" t="n">
-        <v>17.3411</v>
+        <v>2.7248</v>
       </c>
       <c r="O21" t="n">
-        <v>2.6878</v>
+        <v>5.1036</v>
       </c>
       <c r="P21" t="n">
-        <v>-1.1824</v>
+        <v>2.7248</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.218</v>
+        <v>4.6372</v>
       </c>
       <c r="R21" t="n">
-        <v>11.7035</v>
+        <v>3.2899</v>
       </c>
     </row>
     <row r="22">
@@ -1669,40 +1669,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0432</v>
+        <v>0.1637</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5506</v>
+        <v>0.058</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1812</v>
+        <v>0.2207</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0106</v>
+        <v>0.1156</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3012</v>
+        <v>0.1925</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3976</v>
+        <v>0.1324</v>
       </c>
       <c r="M22" t="n">
-        <v>1.4013</v>
+        <v>5.3133</v>
       </c>
       <c r="N22" t="n">
-        <v>17.8757</v>
+        <v>1.8833</v>
       </c>
       <c r="O22" t="n">
-        <v>5.8818</v>
+        <v>7.1672</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3433</v>
+        <v>3.7534</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.777900000000001</v>
+        <v>6.2484</v>
       </c>
       <c r="R22" t="n">
-        <v>12.9082</v>
+        <v>4.3002</v>
       </c>
     </row>
     <row r="23">
@@ -1725,40 +1725,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0198</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1752</v>
+        <v>0.1919</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0074</v>
+        <v>0.0292</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2742</v>
+        <v>0.0629</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3856</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.6239</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>16.3702</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.5081</v>
+        <v>6.0361</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.2336</v>
+        <v>0.9184</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.6213</v>
+        <v>1.9764</v>
       </c>
       <c r="R23" t="n">
-        <v>12.1249</v>
+        <v>2.3537</v>
       </c>
     </row>
     <row r="24">
@@ -1781,40 +1781,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4997</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.207</v>
+        <v>0.201</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0073</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.306</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1637</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09130000000000001</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>15.2342</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>6.3108</v>
+        <v>6.1276</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.2231</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.3291</v>
+        <v>2.1917</v>
       </c>
       <c r="R24" t="n">
-        <v>4.9903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1837,40 +1837,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1319</v>
+        <v>0.0851</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5649</v>
+        <v>0.0653</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3059</v>
+        <v>0.2285</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0429</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4229</v>
+        <v>0.1858</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4659</v>
+        <v>0.0653</v>
       </c>
       <c r="M25" t="n">
-        <v>3.9013</v>
+        <v>2.5169</v>
       </c>
       <c r="N25" t="n">
-        <v>16.7143</v>
+        <v>1.9308</v>
       </c>
       <c r="O25" t="n">
-        <v>9.049300000000001</v>
+        <v>6.7591</v>
       </c>
       <c r="P25" t="n">
-        <v>1.2705</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>12.5108</v>
+        <v>5.4958</v>
       </c>
       <c r="R25" t="n">
-        <v>13.7853</v>
+        <v>1.9308</v>
       </c>
     </row>
     <row r="26">
@@ -1893,40 +1893,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.241</v>
+        <v>0.1943</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6005</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.415</v>
+        <v>0.3376</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0905</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.532</v>
+        <v>0.2949</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5195</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>6.9266</v>
+        <v>5.582</v>
       </c>
       <c r="N26" t="n">
-        <v>17.2562</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>11.9266</v>
+        <v>9.702199999999999</v>
       </c>
       <c r="P26" t="n">
-        <v>2.6011</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>15.2887</v>
+        <v>8.475300000000001</v>
       </c>
       <c r="R26" t="n">
-        <v>14.9287</v>
+        <v>2.4321</v>
       </c>
     </row>
     <row r="27">
@@ -1949,40 +1949,40 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.241</v>
+        <v>0.1943</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5645</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.415</v>
+        <v>0.3376</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0635</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.532</v>
+        <v>0.2949</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5014999999999999</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>6.7332</v>
+        <v>5.426</v>
       </c>
       <c r="N27" t="n">
-        <v>15.7686</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>11.5935</v>
+        <v>9.4312</v>
       </c>
       <c r="P27" t="n">
-        <v>1.7742</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.8617</v>
+        <v>8.2385</v>
       </c>
       <c r="R27" t="n">
-        <v>14.0089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2005,40 +2005,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2372</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6123</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2882</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1083</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5402</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5493</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>6.4461</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>16.6383</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>7.832</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.9427</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.6798</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>14.9264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2061,40 +2061,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3946</v>
+        <v>0.1309</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6866</v>
+        <v>0.0401</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6046</v>
+        <v>0.1453</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1976</v>
+        <v>0.0833</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6916</v>
+        <v>0.1453</v>
       </c>
       <c r="L29" t="n">
-        <v>0.6506</v>
+        <v>0.0833</v>
       </c>
       <c r="M29" t="n">
-        <v>10.4381</v>
+        <v>3.4641</v>
       </c>
       <c r="N29" t="n">
-        <v>18.1638</v>
+        <v>1.0608</v>
       </c>
       <c r="O29" t="n">
-        <v>15.9936</v>
+        <v>3.845</v>
       </c>
       <c r="P29" t="n">
-        <v>5.2272</v>
+        <v>2.2037</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.2952</v>
+        <v>3.845</v>
       </c>
       <c r="R29" t="n">
-        <v>17.2114</v>
+        <v>2.2037</v>
       </c>
     </row>
     <row r="30">
@@ -2117,40 +2117,40 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5204</v>
+        <v>0.2034</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7244</v>
+        <v>0.0323</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7034</v>
+        <v>0.2322</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2444</v>
+        <v>0.1187</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7994</v>
+        <v>0.2322</v>
       </c>
       <c r="L30" t="n">
-        <v>0.7004</v>
+        <v>0.1187</v>
       </c>
       <c r="M30" t="n">
-        <v>13.4123</v>
+        <v>5.2417</v>
       </c>
       <c r="N30" t="n">
-        <v>18.669</v>
+        <v>0.8316</v>
       </c>
       <c r="O30" t="n">
-        <v>18.1288</v>
+        <v>5.984</v>
       </c>
       <c r="P30" t="n">
-        <v>6.2979</v>
+        <v>3.0584</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.603</v>
+        <v>5.984</v>
       </c>
       <c r="R30" t="n">
-        <v>18.0505</v>
+        <v>3.0584</v>
       </c>
     </row>
     <row r="31">
@@ -2173,40 +2173,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6424</v>
+        <v>0.3026</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7766999999999999</v>
+        <v>0.0048</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8344</v>
+        <v>0.3602</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3087</v>
+        <v>0.1488</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9784</v>
+        <v>0.3602</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7737000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="M31" t="n">
-        <v>16.1406</v>
+        <v>7.6025</v>
       </c>
       <c r="N31" t="n">
-        <v>19.5155</v>
+        <v>0.1213</v>
       </c>
       <c r="O31" t="n">
-        <v>20.9647</v>
+        <v>9.0497</v>
       </c>
       <c r="P31" t="n">
-        <v>7.7567</v>
+        <v>3.7394</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.5828</v>
+        <v>9.0497</v>
       </c>
       <c r="R31" t="n">
-        <v>19.4402</v>
+        <v>4.8248</v>
       </c>
     </row>
     <row r="32">
@@ -2229,40 +2229,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7534</v>
+        <v>0.368</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8322000000000001</v>
+        <v>0.0033</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9634</v>
+        <v>0.4832</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3702</v>
+        <v>0.1761</v>
       </c>
       <c r="K32" t="n">
-        <v>1.1104</v>
+        <v>0.4832</v>
       </c>
       <c r="L32" t="n">
-        <v>0.8442</v>
+        <v>0.2481</v>
       </c>
       <c r="M32" t="n">
-        <v>18.4786</v>
+        <v>9.025499999999999</v>
       </c>
       <c r="N32" t="n">
-        <v>20.4105</v>
+        <v>0.0803</v>
       </c>
       <c r="O32" t="n">
-        <v>23.6293</v>
+        <v>11.851</v>
       </c>
       <c r="P32" t="n">
-        <v>9.0791</v>
+        <v>4.3186</v>
       </c>
       <c r="Q32" t="n">
-        <v>27.2348</v>
+        <v>11.851</v>
       </c>
       <c r="R32" t="n">
-        <v>20.7048</v>
+        <v>6.0845</v>
       </c>
     </row>
     <row r="33">
@@ -2285,40 +2285,40 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8938</v>
+        <v>0.4855</v>
       </c>
       <c r="H33" t="n">
-        <v>0.904</v>
+        <v>0.0295</v>
       </c>
       <c r="I33" t="n">
-        <v>1.1098</v>
+        <v>0.6151</v>
       </c>
       <c r="J33" t="n">
-        <v>0.448</v>
+        <v>0.2311</v>
       </c>
       <c r="K33" t="n">
-        <v>1.2538</v>
+        <v>0.6151</v>
       </c>
       <c r="L33" t="n">
-        <v>0.928</v>
+        <v>0.3319</v>
       </c>
       <c r="M33" t="n">
-        <v>21.4207</v>
+        <v>11.6369</v>
       </c>
       <c r="N33" t="n">
-        <v>21.666</v>
+        <v>0.7069</v>
       </c>
       <c r="O33" t="n">
-        <v>26.5976</v>
+        <v>14.743</v>
       </c>
       <c r="P33" t="n">
-        <v>10.737</v>
+        <v>5.5387</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.0489</v>
+        <v>14.743</v>
       </c>
       <c r="R33" t="n">
-        <v>22.2412</v>
+        <v>7.9546</v>
       </c>
     </row>
     <row r="34">
@@ -2341,40 +2341,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.0967</v>
+        <v>0.6825</v>
       </c>
       <c r="H34" t="n">
-        <v>1.0108</v>
+        <v>0.1135</v>
       </c>
       <c r="I34" t="n">
-        <v>1.3247</v>
+        <v>0.8121</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5578</v>
+        <v>0.3295</v>
       </c>
       <c r="K34" t="n">
-        <v>1.4567</v>
+        <v>0.8121</v>
       </c>
       <c r="L34" t="n">
-        <v>1.0438</v>
+        <v>0.4447</v>
       </c>
       <c r="M34" t="n">
-        <v>25.6975</v>
+        <v>15.9915</v>
       </c>
       <c r="N34" t="n">
-        <v>23.6846</v>
+        <v>2.659</v>
       </c>
       <c r="O34" t="n">
-        <v>31.0401</v>
+        <v>19.0283</v>
       </c>
       <c r="P34" t="n">
-        <v>13.0698</v>
+        <v>7.7204</v>
       </c>
       <c r="Q34" t="n">
-        <v>34.1332</v>
+        <v>19.0283</v>
       </c>
       <c r="R34" t="n">
-        <v>24.4579</v>
+        <v>10.4198</v>
       </c>
     </row>
     <row r="35">
@@ -2397,40 +2397,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.0937</v>
+        <v>0.6536999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9868</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.3457</v>
+        <v>0.8121</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5368000000000001</v>
+        <v>0.2287</v>
       </c>
       <c r="K35" t="n">
-        <v>1.4477</v>
+        <v>0.7689</v>
       </c>
       <c r="L35" t="n">
-        <v>1.0348</v>
+        <v>0.4015</v>
       </c>
       <c r="M35" t="n">
-        <v>25.0678</v>
+        <v>14.9823</v>
       </c>
       <c r="N35" t="n">
-        <v>22.6175</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>30.8439</v>
+        <v>18.6129</v>
       </c>
       <c r="P35" t="n">
-        <v>12.3031</v>
+        <v>5.2415</v>
       </c>
       <c r="Q35" t="n">
-        <v>33.1818</v>
+        <v>17.6228</v>
       </c>
       <c r="R35" t="n">
-        <v>23.7177</v>
+        <v>9.202199999999999</v>
       </c>
     </row>
     <row r="36">
@@ -2453,40 +2453,40 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.0097</v>
+        <v>0.2505</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9388</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.0757</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4978</v>
+        <v>0.0415</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8927</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7558</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>22.6481</v>
+        <v>5.618</v>
       </c>
       <c r="N36" t="n">
-        <v>21.0576</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>24.1285</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>11.1655</v>
+        <v>0.9304</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.0236</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>16.9527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2509,40 +2509,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.2292</v>
+        <v>0.3673</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9907</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.4362</v>
+        <v>0.1745</v>
       </c>
       <c r="J37" t="n">
-        <v>0.5557</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.5322</v>
+        <v>0.1745</v>
       </c>
       <c r="L37" t="n">
-        <v>1.0867</v>
+        <v>0.0999</v>
       </c>
       <c r="M37" t="n">
-        <v>26.9947</v>
+        <v>8.067600000000001</v>
       </c>
       <c r="N37" t="n">
-        <v>21.7577</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>31.5409</v>
+        <v>3.8321</v>
       </c>
       <c r="P37" t="n">
-        <v>12.2043</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>33.6492</v>
+        <v>3.8321</v>
       </c>
       <c r="R37" t="n">
-        <v>23.8661</v>
+        <v>2.1947</v>
       </c>
     </row>
     <row r="38">
@@ -2565,40 +2565,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4665</v>
+        <v>0.5692</v>
       </c>
       <c r="H38" t="n">
-        <v>1.1386</v>
+        <v>0.1239</v>
       </c>
       <c r="I38" t="n">
-        <v>1.7395</v>
+        <v>0.3908</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7006</v>
+        <v>0.1239</v>
       </c>
       <c r="K38" t="n">
-        <v>1.7845</v>
+        <v>0.3908</v>
       </c>
       <c r="L38" t="n">
-        <v>1.2016</v>
+        <v>0.1374</v>
       </c>
       <c r="M38" t="n">
-        <v>31.5465</v>
+        <v>12.2456</v>
       </c>
       <c r="N38" t="n">
-        <v>24.4932</v>
+        <v>2.6649</v>
       </c>
       <c r="O38" t="n">
-        <v>37.4193</v>
+        <v>8.406700000000001</v>
       </c>
       <c r="P38" t="n">
-        <v>15.071</v>
+        <v>2.6649</v>
       </c>
       <c r="Q38" t="n">
-        <v>38.3873</v>
+        <v>8.406700000000001</v>
       </c>
       <c r="R38" t="n">
-        <v>25.8485</v>
+        <v>2.9561</v>
       </c>
     </row>
     <row r="39">
@@ -2621,40 +2621,40 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.7576</v>
+        <v>0.8123</v>
       </c>
       <c r="H39" t="n">
-        <v>1.2744</v>
+        <v>0.2141</v>
       </c>
       <c r="I39" t="n">
-        <v>2.0936</v>
+        <v>0.6339</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8334</v>
+        <v>0.1997</v>
       </c>
       <c r="K39" t="n">
-        <v>2.0396</v>
+        <v>0.6339</v>
       </c>
       <c r="L39" t="n">
-        <v>1.3554</v>
+        <v>0.2852</v>
       </c>
       <c r="M39" t="n">
-        <v>37.0497</v>
+        <v>17.1244</v>
       </c>
       <c r="N39" t="n">
-        <v>26.8637</v>
+        <v>4.5125</v>
       </c>
       <c r="O39" t="n">
-        <v>44.1326</v>
+        <v>13.3625</v>
       </c>
       <c r="P39" t="n">
-        <v>17.5674</v>
+        <v>4.2089</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.9943</v>
+        <v>13.3625</v>
       </c>
       <c r="R39" t="n">
-        <v>28.5712</v>
+        <v>6.012</v>
       </c>
     </row>
     <row r="40">
@@ -2677,40 +2677,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.9943</v>
+        <v>0.9831</v>
       </c>
       <c r="H40" t="n">
-        <v>1.3562</v>
+        <v>0.2275</v>
       </c>
       <c r="I40" t="n">
-        <v>2.3873</v>
+        <v>0.8046</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9062</v>
+        <v>0.1699</v>
       </c>
       <c r="K40" t="n">
-        <v>2.2133</v>
+        <v>0.8046</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4432</v>
+        <v>0.3275</v>
       </c>
       <c r="M40" t="n">
-        <v>41.2126</v>
+        <v>20.3156</v>
       </c>
       <c r="N40" t="n">
-        <v>28.0268</v>
+        <v>4.7019</v>
       </c>
       <c r="O40" t="n">
-        <v>49.334</v>
+        <v>16.6278</v>
       </c>
       <c r="P40" t="n">
-        <v>18.7275</v>
+        <v>3.5116</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.7383</v>
+        <v>16.6278</v>
       </c>
       <c r="R40" t="n">
-        <v>29.8247</v>
+        <v>6.7671</v>
       </c>
     </row>
     <row r="41">
@@ -2733,40 +2733,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.2511</v>
+        <v>1.1739</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4572</v>
+        <v>0.2715</v>
       </c>
       <c r="I41" t="n">
-        <v>2.6381</v>
+        <v>0.9955000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>1.0012</v>
+        <v>0.1851</v>
       </c>
       <c r="K41" t="n">
-        <v>2.3951</v>
+        <v>0.9235</v>
       </c>
       <c r="L41" t="n">
-        <v>1.5652</v>
+        <v>0.4291</v>
       </c>
       <c r="M41" t="n">
-        <v>45.6224</v>
+        <v>23.7911</v>
       </c>
       <c r="N41" t="n">
-        <v>29.533</v>
+        <v>5.5031</v>
       </c>
       <c r="O41" t="n">
-        <v>53.4654</v>
+        <v>20.1744</v>
       </c>
       <c r="P41" t="n">
-        <v>20.2915</v>
+        <v>3.7521</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.5407</v>
+        <v>18.7153</v>
       </c>
       <c r="R41" t="n">
-        <v>31.7217</v>
+        <v>8.6958</v>
       </c>
     </row>
     <row r="42">
@@ -2789,40 +2789,40 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.6116</v>
+        <v>1.3994</v>
       </c>
       <c r="H42" t="n">
-        <v>1.6063</v>
+        <v>0.4086</v>
       </c>
       <c r="I42" t="n">
-        <v>2.9806</v>
+        <v>1.221</v>
       </c>
       <c r="J42" t="n">
-        <v>1.1503</v>
+        <v>0.2934</v>
       </c>
       <c r="K42" t="n">
-        <v>2.6686</v>
+        <v>1.149</v>
       </c>
       <c r="L42" t="n">
-        <v>1.7143</v>
+        <v>0.5662</v>
       </c>
       <c r="M42" t="n">
-        <v>51.9262</v>
+        <v>27.8242</v>
       </c>
       <c r="N42" t="n">
-        <v>31.9379</v>
+        <v>8.124499999999999</v>
       </c>
       <c r="O42" t="n">
-        <v>59.2629</v>
+        <v>24.276</v>
       </c>
       <c r="P42" t="n">
-        <v>22.8714</v>
+        <v>5.834</v>
       </c>
       <c r="Q42" t="n">
-        <v>53.0595</v>
+        <v>22.8445</v>
       </c>
       <c r="R42" t="n">
-        <v>34.0852</v>
+        <v>11.2566</v>
       </c>
     </row>
     <row r="43">
@@ -2845,40 +2845,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.9902</v>
+        <v>1.622</v>
       </c>
       <c r="H43" t="n">
-        <v>1.7686</v>
+        <v>0.5151</v>
       </c>
       <c r="I43" t="n">
-        <v>3.3292</v>
+        <v>1.4436</v>
       </c>
       <c r="J43" t="n">
-        <v>1.2766</v>
+        <v>0.3855</v>
       </c>
       <c r="K43" t="n">
-        <v>2.9782</v>
+        <v>1.3716</v>
       </c>
       <c r="L43" t="n">
-        <v>1.8556</v>
+        <v>0.7015</v>
       </c>
       <c r="M43" t="n">
-        <v>58.3485</v>
+        <v>31.6504</v>
       </c>
       <c r="N43" t="n">
-        <v>34.5115</v>
+        <v>10.0518</v>
       </c>
       <c r="O43" t="n">
-        <v>64.9635</v>
+        <v>28.1682</v>
       </c>
       <c r="P43" t="n">
-        <v>24.911</v>
+        <v>7.5229</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.1144</v>
+        <v>26.7632</v>
       </c>
       <c r="R43" t="n">
-        <v>36.2091</v>
+        <v>13.6877</v>
       </c>
     </row>
     <row r="44">
@@ -2901,40 +2901,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.3528</v>
+        <v>1.8466</v>
       </c>
       <c r="H44" t="n">
-        <v>1.9502</v>
+        <v>0.6373</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6498</v>
+        <v>1.6682</v>
       </c>
       <c r="J44" t="n">
-        <v>1.4282</v>
+        <v>0.4933</v>
       </c>
       <c r="K44" t="n">
-        <v>3.2928</v>
+        <v>1.5962</v>
       </c>
       <c r="L44" t="n">
-        <v>1.9982</v>
+        <v>0.838</v>
       </c>
       <c r="M44" t="n">
-        <v>64.23050000000001</v>
+        <v>35.3757</v>
       </c>
       <c r="N44" t="n">
-        <v>37.3595</v>
+        <v>12.2082</v>
       </c>
       <c r="O44" t="n">
-        <v>69.92010000000001</v>
+        <v>31.957</v>
       </c>
       <c r="P44" t="n">
-        <v>27.3595</v>
+        <v>9.4495</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.081</v>
+        <v>30.5777</v>
       </c>
       <c r="R44" t="n">
-        <v>38.2791</v>
+        <v>16.0536</v>
       </c>
     </row>
     <row r="45">
@@ -2957,40 +2957,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>3.4578</v>
+        <v>1.8466</v>
       </c>
       <c r="H45" t="n">
-        <v>2.0072</v>
+        <v>0.6373</v>
       </c>
       <c r="I45" t="n">
-        <v>3.7098</v>
+        <v>1.6682</v>
       </c>
       <c r="J45" t="n">
-        <v>1.4552</v>
+        <v>0.4933</v>
       </c>
       <c r="K45" t="n">
-        <v>3.3618</v>
+        <v>1.5962</v>
       </c>
       <c r="L45" t="n">
-        <v>2.0072</v>
+        <v>0.838</v>
       </c>
       <c r="M45" t="n">
-        <v>66.242</v>
+        <v>35.3757</v>
       </c>
       <c r="N45" t="n">
-        <v>38.4515</v>
+        <v>12.2082</v>
       </c>
       <c r="O45" t="n">
-        <v>71.06959999999999</v>
+        <v>31.957</v>
       </c>
       <c r="P45" t="n">
-        <v>27.8768</v>
+        <v>9.4495</v>
       </c>
       <c r="Q45" t="n">
-        <v>64.4029</v>
+        <v>30.5777</v>
       </c>
       <c r="R45" t="n">
-        <v>38.4515</v>
+        <v>16.0536</v>
       </c>
     </row>
     <row r="46">
@@ -3013,40 +3013,40 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.6169</v>
+        <v>1.8461</v>
       </c>
       <c r="H46" t="n">
-        <v>2.2</v>
+        <v>0.7911</v>
       </c>
       <c r="I46" t="n">
-        <v>3.8689</v>
+        <v>1.6676</v>
       </c>
       <c r="J46" t="n">
-        <v>1.567</v>
+        <v>0.4167</v>
       </c>
       <c r="K46" t="n">
-        <v>3.4669</v>
+        <v>1.3364</v>
       </c>
       <c r="L46" t="n">
-        <v>2.182</v>
+        <v>0.9918</v>
       </c>
       <c r="M46" t="n">
-        <v>69.28870000000001</v>
+        <v>35.365</v>
       </c>
       <c r="N46" t="n">
-        <v>42.1452</v>
+        <v>15.1547</v>
       </c>
       <c r="O46" t="n">
-        <v>74.1163</v>
+        <v>31.9463</v>
       </c>
       <c r="P46" t="n">
-        <v>30.0187</v>
+        <v>7.9823</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.4152</v>
+        <v>25.6015</v>
       </c>
       <c r="R46" t="n">
-        <v>41.8003</v>
+        <v>19.0002</v>
       </c>
     </row>
     <row r="47">
@@ -3069,40 +3069,40 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>3.7196</v>
+        <v>1.8768</v>
       </c>
       <c r="H47" t="n">
-        <v>2.2857</v>
+        <v>0.7958</v>
       </c>
       <c r="I47" t="n">
-        <v>3.9626</v>
+        <v>1.6983</v>
       </c>
       <c r="J47" t="n">
-        <v>1.6107</v>
+        <v>0.4214</v>
       </c>
       <c r="K47" t="n">
-        <v>3.6386</v>
+        <v>1.3671</v>
       </c>
       <c r="L47" t="n">
-        <v>2.2287</v>
+        <v>0.9965000000000001</v>
       </c>
       <c r="M47" t="n">
-        <v>71.2561</v>
+        <v>35.9531</v>
       </c>
       <c r="N47" t="n">
-        <v>43.7867</v>
+        <v>15.2446</v>
       </c>
       <c r="O47" t="n">
-        <v>75.9113</v>
+        <v>32.5344</v>
       </c>
       <c r="P47" t="n">
-        <v>30.8557</v>
+        <v>8.072100000000001</v>
       </c>
       <c r="Q47" t="n">
-        <v>69.70440000000001</v>
+        <v>26.1896</v>
       </c>
       <c r="R47" t="n">
-        <v>42.6948</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="48">
@@ -3125,40 +3125,40 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>3.7451</v>
+        <v>1.8422</v>
       </c>
       <c r="H48" t="n">
-        <v>2.3093</v>
+        <v>0.796</v>
       </c>
       <c r="I48" t="n">
-        <v>3.9941</v>
+        <v>1.707</v>
       </c>
       <c r="J48" t="n">
-        <v>1.6373</v>
+        <v>0.436</v>
       </c>
       <c r="K48" t="n">
-        <v>3.6701</v>
+        <v>1.3758</v>
       </c>
       <c r="L48" t="n">
-        <v>2.2493</v>
+        <v>0.9967</v>
       </c>
       <c r="M48" t="n">
-        <v>71.7444</v>
+        <v>35.2919</v>
       </c>
       <c r="N48" t="n">
-        <v>44.2386</v>
+        <v>15.2481</v>
       </c>
       <c r="O48" t="n">
-        <v>76.5145</v>
+        <v>32.7008</v>
       </c>
       <c r="P48" t="n">
-        <v>31.365</v>
+        <v>8.3515</v>
       </c>
       <c r="Q48" t="n">
-        <v>70.30759999999999</v>
+        <v>26.356</v>
       </c>
       <c r="R48" t="n">
-        <v>43.0891</v>
+        <v>19.0936</v>
       </c>
     </row>
     <row r="49">
@@ -3181,40 +3181,96 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>3.8043</v>
+        <v>2.0034</v>
       </c>
       <c r="H49" t="n">
-        <v>2.3762</v>
+        <v>0.9413</v>
       </c>
       <c r="I49" t="n">
-        <v>4.0563</v>
+        <v>1.8969</v>
       </c>
       <c r="J49" t="n">
-        <v>1.7192</v>
+        <v>0.5813</v>
       </c>
       <c r="K49" t="n">
-        <v>3.7503</v>
+        <v>1.5657</v>
       </c>
       <c r="L49" t="n">
-        <v>2.3132</v>
+        <v>1.142</v>
       </c>
       <c r="M49" t="n">
-        <v>72.8785</v>
+        <v>38.3794</v>
       </c>
       <c r="N49" t="n">
-        <v>45.522</v>
+        <v>18.0323</v>
       </c>
       <c r="O49" t="n">
-        <v>77.70610000000001</v>
+        <v>36.34</v>
       </c>
       <c r="P49" t="n">
-        <v>32.9358</v>
+        <v>11.1357</v>
       </c>
       <c r="Q49" t="n">
-        <v>71.84399999999999</v>
+        <v>29.9952</v>
       </c>
       <c r="R49" t="n">
-        <v>44.3151</v>
+        <v>21.8778</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.0448</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.9384</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.6072</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.1737</v>
+      </c>
+      <c r="M50" t="n">
+        <v>39.1726</v>
+      </c>
+      <c r="N50" t="n">
+        <v>18.6392</v>
+      </c>
+      <c r="O50" t="n">
+        <v>37.1333</v>
+      </c>
+      <c r="P50" t="n">
+        <v>11.7427</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>30.7884</v>
+      </c>
+      <c r="R50" t="n">
+        <v>22.4847</v>
       </c>
     </row>
   </sheetData>

--- a/Penman_irrigation_summary.xlsx
+++ b/Penman_irrigation_summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Penman_irrigation_summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Penman_irrigation_summary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3237,40 +3237,96 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>2.0448</v>
+        <v>2.1267</v>
       </c>
       <c r="H50" t="n">
-        <v>0.973</v>
+        <v>1.0356</v>
       </c>
       <c r="I50" t="n">
-        <v>1.9384</v>
+        <v>2.0202</v>
       </c>
       <c r="J50" t="n">
-        <v>0.613</v>
+        <v>0.6756</v>
       </c>
       <c r="K50" t="n">
-        <v>1.6072</v>
+        <v>1.689</v>
       </c>
       <c r="L50" t="n">
-        <v>1.1737</v>
+        <v>1.2363</v>
       </c>
       <c r="M50" t="n">
-        <v>39.1726</v>
+        <v>40.7412</v>
       </c>
       <c r="N50" t="n">
-        <v>18.6392</v>
+        <v>19.8393</v>
       </c>
       <c r="O50" t="n">
-        <v>37.1333</v>
+        <v>38.7018</v>
       </c>
       <c r="P50" t="n">
-        <v>11.7427</v>
+        <v>12.9427</v>
       </c>
       <c r="Q50" t="n">
-        <v>30.7884</v>
+        <v>32.357</v>
       </c>
       <c r="R50" t="n">
-        <v>22.4847</v>
+        <v>23.6847</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45472</v>
+      </c>
+      <c r="B51" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.1267</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.0356</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.0202</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.6756</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.2363</v>
+      </c>
+      <c r="M51" t="n">
+        <v>40.7412</v>
+      </c>
+      <c r="N51" t="n">
+        <v>19.8393</v>
+      </c>
+      <c r="O51" t="n">
+        <v>38.7018</v>
+      </c>
+      <c r="P51" t="n">
+        <v>12.9427</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>32.357</v>
+      </c>
+      <c r="R51" t="n">
+        <v>23.6847</v>
       </c>
     </row>
   </sheetData>

--- a/Penman_irrigation_summary.xlsx
+++ b/Penman_irrigation_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3278,7 +3278,7 @@
         <v>45472</v>
       </c>
       <c r="B51" t="n">
-        <v>22.86</v>
+        <v>23.876</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -3327,6 +3327,62 @@
       </c>
       <c r="R51" t="n">
         <v>23.6847</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.3227</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>6.8672</v>
+      </c>
+      <c r="O52" t="n">
+        <v>6.1829</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>15.4024</v>
       </c>
     </row>
   </sheetData>

--- a/Penman_irrigation_summary.xlsx
+++ b/Penman_irrigation_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3352,37 +3352,93 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3585</v>
+        <v>0.3916</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3227</v>
+        <v>0.366</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.804</v>
+        <v>0.8371</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>6.8672</v>
+        <v>7.501</v>
       </c>
       <c r="O52" t="n">
-        <v>6.1829</v>
+        <v>7.0112</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>0.0527</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>15.4024</v>
+        <v>16.0361</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.1944</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.5691000000000001</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.5604</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1803</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.1944</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.0146</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3.7245</v>
+      </c>
+      <c r="N53" t="n">
+        <v>10.9017</v>
+      </c>
+      <c r="O53" t="n">
+        <v>10.7358</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3.4534</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3.7245</v>
+      </c>
+      <c r="R53" t="n">
+        <v>19.4368</v>
       </c>
     </row>
   </sheetData>
